--- a/Documents/Plan.xlsx
+++ b/Documents/Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johansolbakken/NTNU/kasperfoss/KasperFossNo/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65586011-05D5-144B-9197-08D45A0C2954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87047AC5-51EE-244A-9818-982B243FC727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16320" xr2:uid="{F3FC085A-A831-BA4C-AFA9-3081ADDBCF71}"/>
+    <workbookView xWindow="10160" yWindow="460" windowWidth="18260" windowHeight="16160" xr2:uid="{F3FC085A-A831-BA4C-AFA9-3081ADDBCF71}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="63">
   <si>
     <t>Fil</t>
   </si>
@@ -188,9 +188,6 @@
     <t>Godt på vei</t>
   </si>
   <si>
-    <t>Ble ødelagt</t>
-  </si>
-  <si>
     <t>Ikke begynt på</t>
   </si>
   <si>
@@ -201,13 +198,37 @@
   </si>
   <si>
     <t>Quiz</t>
+  </si>
+  <si>
+    <t>TIRSDAG</t>
+  </si>
+  <si>
+    <t>ONSADG</t>
+  </si>
+  <si>
+    <t>Slett</t>
+  </si>
+  <si>
+    <t>Ferdig, kanskje mer stil</t>
+  </si>
+  <si>
+    <t>ferdig, for nå</t>
+  </si>
+  <si>
+    <t>navigasjon, ferdig, mangler stil</t>
+  </si>
+  <si>
+    <t>index.js, grei</t>
+  </si>
+  <si>
+    <t>Vet ikke.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -223,8 +244,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,6 +276,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -262,12 +295,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,9 +617,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0681FE9A-73C9-2F48-87EC-BA02944B7BBE}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -594,9 +631,10 @@
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,8 +650,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -629,11 +673,14 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -649,11 +696,14 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -669,11 +719,14 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -689,11 +742,14 @@
       <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -709,11 +765,14 @@
       <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -729,11 +788,14 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -749,11 +811,14 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -769,11 +834,14 @@
       <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -789,11 +857,14 @@
       <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -809,11 +880,14 @@
       <c r="E11" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -830,10 +904,13 @@
         <v>15</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -850,10 +927,13 @@
         <v>18</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -870,10 +950,13 @@
         <v>21</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -890,10 +973,13 @@
         <v>12</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -910,10 +996,13 @@
         <v>9</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -930,10 +1019,13 @@
         <v>9</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -950,12 +1042,18 @@
         <v>49</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Plan.xlsx
+++ b/Documents/Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johansolbakken/NTNU/kasperfoss/KasperFossNo/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87047AC5-51EE-244A-9818-982B243FC727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2806D822-7192-FD43-A765-BF347B4B1024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10160" yWindow="460" windowWidth="18260" windowHeight="16160" xr2:uid="{F3FC085A-A831-BA4C-AFA9-3081ADDBCF71}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="67">
   <si>
     <t>Fil</t>
   </si>
@@ -212,16 +212,28 @@
     <t>Ferdig, kanskje mer stil</t>
   </si>
   <si>
-    <t>ferdig, for nå</t>
-  </si>
-  <si>
-    <t>navigasjon, ferdig, mangler stil</t>
-  </si>
-  <si>
     <t>index.js, grei</t>
   </si>
   <si>
     <t>Vet ikke.</t>
+  </si>
+  <si>
+    <t>Torsdag</t>
+  </si>
+  <si>
+    <t>Greit ferdig</t>
+  </si>
+  <si>
+    <t>Navigasjon ferdig</t>
+  </si>
+  <si>
+    <t>Form_validasjon ferdig</t>
+  </si>
+  <si>
+    <t>Footer ferdig</t>
+  </si>
+  <si>
+    <t>Veldig grei</t>
   </si>
 </sst>
 </file>
@@ -617,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0681FE9A-73C9-2F48-87EC-BA02944B7BBE}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -632,9 +644,10 @@
     <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,8 +669,11 @@
       <c r="G1" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -679,8 +695,11 @@
       <c r="G2" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -702,8 +721,11 @@
       <c r="G3" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -725,8 +747,11 @@
       <c r="G4" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -749,7 +774,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -771,8 +796,11 @@
       <c r="G6" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -795,7 +823,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -817,8 +845,11 @@
       <c r="G8" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -840,8 +871,11 @@
       <c r="G9" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -864,7 +898,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -886,8 +920,11 @@
       <c r="G11" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -907,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -933,7 +970,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -953,10 +990,10 @@
         <v>51</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -976,10 +1013,10 @@
         <v>52</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -999,7 +1036,7 @@
         <v>51</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1022,7 +1059,7 @@
         <v>53</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">

--- a/Documents/Plan.xlsx
+++ b/Documents/Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johansolbakken/NTNU/kasperfoss/KasperFossNo/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2806D822-7192-FD43-A765-BF347B4B1024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F0D2CF-850D-6544-9EBE-1647A8FEFA5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10160" yWindow="460" windowWidth="18260" windowHeight="16160" xr2:uid="{F3FC085A-A831-BA4C-AFA9-3081ADDBCF71}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="105">
   <si>
     <t>Fil</t>
   </si>
@@ -200,12 +200,6 @@
     <t>Quiz</t>
   </si>
   <si>
-    <t>TIRSDAG</t>
-  </si>
-  <si>
-    <t>ONSADG</t>
-  </si>
-  <si>
     <t>Slett</t>
   </si>
   <si>
@@ -218,9 +212,6 @@
     <t>Vet ikke.</t>
   </si>
   <si>
-    <t>Torsdag</t>
-  </si>
-  <si>
     <t>Greit ferdig</t>
   </si>
   <si>
@@ -230,17 +221,140 @@
     <t>Form_validasjon ferdig</t>
   </si>
   <si>
+    <t>Ferdig</t>
+  </si>
+  <si>
     <t>Footer ferdig</t>
   </si>
   <si>
     <t>Veldig grei</t>
+  </si>
+  <si>
+    <t>Grei</t>
+  </si>
+  <si>
+    <t>index.js ferdig</t>
+  </si>
+  <si>
+    <t>slett</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>footer.css</t>
+  </si>
+  <si>
+    <t>form.css</t>
+  </si>
+  <si>
+    <t>index.css</t>
+  </si>
+  <si>
+    <t>navigasjon.css</t>
+  </si>
+  <si>
+    <t>test.css</t>
+  </si>
+  <si>
+    <t>js</t>
+  </si>
+  <si>
+    <t>index.js</t>
+  </si>
+  <si>
+    <t>kommende_eventer.js</t>
+  </si>
+  <si>
+    <t>media.js</t>
+  </si>
+  <si>
+    <t>navigasjon.js</t>
+  </si>
+  <si>
+    <t>quiz.js</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>media.html</t>
+  </si>
+  <si>
+    <t>test.html</t>
+  </si>
+  <si>
+    <t>Styling for event</t>
+  </si>
+  <si>
+    <t>Styling av footer</t>
+  </si>
+  <si>
+    <t>Styling av form</t>
+  </si>
+  <si>
+    <t>Styling av index</t>
+  </si>
+  <si>
+    <t>styling av kontakt</t>
+  </si>
+  <si>
+    <t>felles style</t>
+  </si>
+  <si>
+    <t>styling for navigasjon</t>
+  </si>
+  <si>
+    <t>styling for om</t>
+  </si>
+  <si>
+    <t>styling for quiz</t>
+  </si>
+  <si>
+    <t>automatisk oppbygging av footer</t>
+  </si>
+  <si>
+    <t>sjekking av form</t>
+  </si>
+  <si>
+    <t>funksjonalitet i index</t>
+  </si>
+  <si>
+    <t>automatisk oppbygging av eventer</t>
+  </si>
+  <si>
+    <t>automatisk oppbygging av media</t>
+  </si>
+  <si>
+    <t>automatisk oppbyggin av navigasjon</t>
+  </si>
+  <si>
+    <t>spill</t>
+  </si>
+  <si>
+    <t>Viser eventer</t>
+  </si>
+  <si>
+    <t>Hovedsiden som presenterer</t>
+  </si>
+  <si>
+    <t>Oppretter kontakt</t>
+  </si>
+  <si>
+    <t>Viser hva kasper har gjort tidligere</t>
+  </si>
+  <si>
+    <t>Forteller om kasper</t>
+  </si>
+  <si>
+    <t>quiz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -262,8 +376,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,6 +416,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -307,14 +435,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,15 +760,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0681FE9A-73C9-2F48-87EC-BA02944B7BBE}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
@@ -663,14 +794,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>61</v>
+      <c r="F1" s="8">
+        <v>44124</v>
+      </c>
+      <c r="G1" s="8">
+        <v>44125</v>
+      </c>
+      <c r="H1" s="8">
+        <v>44130</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -696,7 +827,7 @@
         <v>50</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -722,7 +853,7 @@
         <v>50</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -748,7 +879,7 @@
         <v>50</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -773,6 +904,9 @@
       <c r="G5" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="H5" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -797,7 +931,7 @@
         <v>50</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -822,6 +956,9 @@
       <c r="G7" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="H7" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -846,7 +983,7 @@
         <v>50</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -872,7 +1009,7 @@
         <v>50</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -897,6 +1034,9 @@
       <c r="G10" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="H10" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -921,7 +1061,7 @@
         <v>50</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -944,7 +1084,10 @@
         <v>51</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -966,8 +1109,8 @@
       <c r="F13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>57</v>
+      <c r="G13" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -989,8 +1132,8 @@
       <c r="F14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>64</v>
+      <c r="G14" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1012,8 +1155,8 @@
       <c r="F15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>63</v>
+      <c r="G15" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1035,11 +1178,11 @@
       <c r="F16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G16" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1059,10 +1202,13 @@
         <v>53</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1084,13 +1230,273 @@
       <c r="G18" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F19" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
